--- a/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Estonia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Estonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1645,11 +1645,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4111,11 +4111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Estonia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Estonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0AD81-2BAB-451F-A67A-6B9AD6E36B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="23" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -170,12 +171,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -276,12 +277,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -350,12 +351,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -424,12 +425,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -498,12 +499,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -535,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -551,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -572,12 +573,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -593,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -609,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -625,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -646,12 +647,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -667,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -683,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -720,7 +721,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="57">
   <si>
     <t>-</t>
   </si>
@@ -887,11 +888,17 @@
   <si>
     <t>Rev: new map of Europe</t>
   </si>
+  <si>
+    <t>2.000.000</t>
+  </si>
+  <si>
+    <t>1.500.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1185,17 +1192,16 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="53">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1341,6 +1347,263 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1365,16 +1628,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="51" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1642,28 +1905,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="12" width="3.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1951,7 @@
       <c r="L1" s="32"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
@@ -1723,7 +1986,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -1763,7 +2026,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -1803,7 +2066,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -1845,7 +2108,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -1887,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -1927,7 +2190,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -1967,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -2007,7 +2270,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -2047,7 +2310,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -2084,6 +2347,48 @@
       </c>
       <c r="M11" s="12" t="str">
         <f>IF(OR(AND(I11&gt;1,I11&lt;&gt;"-"),AND(J11&gt;1,J11&lt;&gt;"-"),AND(K11&gt;1,K11&lt;&gt;"-"),AND(L11&gt;1,L11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f t="shared" ref="M12" si="1">IF(OR(AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-"),AND(K12&gt;1,K12&lt;&gt;"-"),AND(L12&gt;1,L12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2096,7 +2401,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2108,14 +2413,101 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K11">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L11">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2127,10 +2519,478 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K11">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K11" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" ref="K12" si="1">IF(OR(AND(H12&gt;1,H12&lt;&gt;"-"),AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J11">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2142,9 +3002,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L11">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2163,29 +3028,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -2200,15 +3065,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
@@ -2220,24 +3083,18 @@
       <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>33</v>
       </c>
+      <c r="G2" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -2254,58 +3111,48 @@
       <c r="F3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="22"/>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" ref="K4:K11" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="str">
+        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -2324,24 +3171,18 @@
       <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12" t="str">
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -2360,58 +3201,48 @@
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12" t="str">
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="str">
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -2428,24 +3259,18 @@
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12" t="str">
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -2457,29 +3282,23 @@
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12" t="str">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -2493,27 +3312,21 @@
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12" t="str">
+      <c r="F10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -2532,20 +3345,44 @@
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12" t="str">
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2554,10 +3391,13 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H11">
+  <conditionalFormatting sqref="G3:G11">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2570,13 +3410,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2595,29 +3460,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="B11:E11"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -2633,12 +3498,12 @@
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
@@ -2661,7 +3526,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -2671,7 +3536,9 @@
       <c r="C3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="E3" s="17" t="s">
         <v>43</v>
       </c>
@@ -2689,7 +3556,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -2719,7 +3586,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -2749,7 +3616,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -2779,12 +3646,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>0</v>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>0</v>
@@ -2809,7 +3676,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -2819,7 +3686,9 @@
       <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="20" t="s">
         <v>37</v>
       </c>
@@ -2837,7 +3706,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -2847,14 +3716,16 @@
       <c r="C9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
-        <v>47</v>
+      <c r="D9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2865,7 +3736,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -2875,12 +3746,14 @@
       <c r="C10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -2893,7 +3766,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -2920,6 +3793,36 @@
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2932,8 +3835,38 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G11">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2946,9 +3879,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2967,29 +3900,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3005,12 +3938,12 @@
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
@@ -3033,7 +3966,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -3047,7 +3980,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -3063,7 +3996,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -3093,7 +4026,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -3123,7 +4056,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -3153,12 +4086,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>0</v>
@@ -3183,7 +4116,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -3213,7 +4146,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -3226,13 +4159,13 @@
       <c r="D9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
+      <c r="E9" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -3243,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -3260,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -3273,7 +4206,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -3300,6 +4233,36 @@
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3312,8 +4275,38 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G11">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3326,9 +4319,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3347,29 +4340,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="B4:E7"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3385,12 +4378,12 @@
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
@@ -3413,7 +4406,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -3427,7 +4420,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -3443,7 +4436,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -3473,7 +4466,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -3503,7 +4496,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -3533,7 +4526,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -3563,7 +4556,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -3593,26 +4586,26 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>49</v>
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -3623,7 +4616,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -3640,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -3653,7 +4646,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -3680,6 +4673,36 @@
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3692,8 +4715,38 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G11">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3706,9 +4759,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3727,29 +4780,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="B11:E11"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3764,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="34"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
@@ -3793,12 +4846,12 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>31</v>
@@ -3807,7 +4860,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -3823,7 +4876,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -3853,7 +4906,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -3883,7 +4936,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -3913,7 +4966,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -3943,12 +4996,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>31</v>
@@ -3973,7 +5026,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -4003,12 +5056,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>31</v>
@@ -4033,7 +5086,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -4060,6 +5113,36 @@
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4072,8 +5155,38 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G11">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4086,9 +5199,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -4107,29 +5220,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -4145,12 +5258,12 @@
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="34"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
@@ -4173,7 +5286,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -4187,7 +5300,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -4203,7 +5316,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -4233,7 +5346,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -4263,7 +5376,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -4293,7 +5406,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -4323,7 +5436,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -4349,11 +5462,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -4383,7 +5496,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -4413,7 +5526,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -4440,6 +5553,36 @@
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4452,8 +5595,38 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G11">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4466,9 +5639,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -4487,388 +5660,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="str">
-        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12" t="str">
-        <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G11">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4878,14 +5671,14 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -4896,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4907,7 +5700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4918,7 +5711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4929,7 +5722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -4940,7 +5733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -4951,7 +5744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -4964,12 +5757,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Estonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE54C9-3887-450F-806B-684E2254D4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF5EFF-3A64-42AD-BCAF-2967D0C422CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -994,9 +994,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -1182,6 +1179,9 @@
   </si>
   <si>
     <t>PT</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1499,6 +1499,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,25 +1533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1541,6 +1541,15 @@
   </cellStyles>
   <dxfs count="87">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -2211,15 +2220,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2252,9 +2252,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="85" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2525,11 +2525,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2546,70 +2546,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>64</v>
+      <c r="J2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -2618,17 +2618,17 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2664,10 +2664,10 @@
         <v>2012</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="19" t="s">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="19" t="s">
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>0</v>
@@ -2852,17 +2852,17 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -2898,17 +2898,17 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -2944,10 +2944,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="19" t="s">
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="19" t="s">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
@@ -3132,14 +3132,14 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -3242,12 +3242,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K11">
-    <cfRule type="containsText" dxfId="83" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L11">
-    <cfRule type="containsText" dxfId="82" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -3262,7 +3262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M11">
-    <cfRule type="containsText" dxfId="81" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -3277,7 +3277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N11">
-    <cfRule type="containsText" dxfId="80" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -3292,7 +3292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L15">
-    <cfRule type="containsText" dxfId="79" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -3307,7 +3307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N15">
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -3322,7 +3322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M15">
-    <cfRule type="containsText" dxfId="77" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3349,12 +3349,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K15">
-    <cfRule type="containsText" dxfId="76" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J13 J15">
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3381,7 +3381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3399,7 +3399,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3416,62 +3416,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -3480,17 +3480,17 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>2012</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="19" t="s">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19" t="s">
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
@@ -3684,17 +3684,17 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -3724,17 +3724,17 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -3764,10 +3764,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>0</v>
@@ -3926,14 +3926,14 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -4024,12 +4024,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsText" dxfId="74" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L11">
-    <cfRule type="containsText" dxfId="73" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -4056,12 +4056,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="72" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="71" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -4088,12 +4088,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="70" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -4108,7 +4108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="containsText" dxfId="68" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -4123,7 +4123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4150,12 +4150,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4182,12 +4182,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4202,7 +4202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4217,7 +4217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4245,7 +4245,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4262,54 +4262,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="38"/>
       <c r="J1" s="26"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -4318,17 +4318,17 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4496,17 +4496,17 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -4530,17 +4530,17 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -4564,10 +4564,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -4706,14 +4706,14 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -4740,14 +4740,14 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -4778,7 +4778,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11 I13 I15">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -4793,7 +4793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11 J13 J15">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -4807,8 +4807,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 I14">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I14 I12">
+    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -4822,8 +4822,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12 J14">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J14 J12">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4838,7 +4838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4853,7 +4853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -4868,7 +4868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4883,7 +4883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4911,7 +4911,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4928,54 +4928,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -4984,19 +4984,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>2015</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>0</v>
@@ -5164,19 +5164,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -5200,13 +5200,13 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -5380,16 +5380,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -5416,16 +5416,16 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -5456,7 +5456,7 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11 I13">
-    <cfRule type="containsText" dxfId="52" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -5471,7 +5471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11 J13">
-    <cfRule type="containsText" dxfId="51" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5486,7 +5486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -5501,7 +5501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -5516,7 +5516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -5531,7 +5531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J15">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5546,7 +5546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5561,7 +5561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5576,7 +5576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5591,7 +5591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5619,7 +5619,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5636,54 +5636,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -5692,19 +5692,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5872,19 +5872,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -5908,19 +5908,19 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -5944,13 +5944,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -6016,13 +6016,13 @@
         <v>2020</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
@@ -6052,22 +6052,22 @@
         <v>2021</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -6088,16 +6088,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -6165,7 +6165,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -6180,7 +6180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -6194,8 +6194,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 I14">
-    <cfRule type="containsText" dxfId="40" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I14 I12">
+    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -6210,7 +6210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6224,8 +6224,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13 I15">
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I15 I13">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6240,7 +6240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6255,7 +6255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -6270,7 +6270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6285,7 +6285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6300,7 +6300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6315,7 +6315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6330,7 +6330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6358,7 +6358,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6375,54 +6375,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -6431,19 +6431,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6611,19 +6611,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -6683,13 +6683,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -6827,16 +6827,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -6903,7 +6903,7 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -6918,7 +6918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -6933,7 +6933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -6948,7 +6948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6963,7 +6963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6978,7 +6978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6993,7 +6993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7007,8 +7007,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13 I15">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I15 I13">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7022,8 +7022,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13 J15">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J15 J13">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7038,7 +7038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7053,7 +7053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7068,7 +7068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7096,7 +7096,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A13:K15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7113,54 +7113,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -7169,19 +7169,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -7349,19 +7349,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -7421,13 +7421,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -7565,16 +7565,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -7641,7 +7641,7 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11 I13 I15">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7656,7 +7656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11 J13 J15">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7670,8 +7670,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 I14">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I14 I12">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7685,8 +7685,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12 J14">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J14 J12">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7701,7 +7701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7716,7 +7716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7731,7 +7731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7755,11 +7755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7774,54 +7774,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -7830,19 +7830,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="shared" ref="K3:K13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="K4:K13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -8010,19 +8010,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -8226,16 +8226,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -8262,16 +8262,16 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -8294,16 +8294,16 @@
       </c>
     </row>
     <row r="19" spans="21:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
     </row>
     <row r="27" spans="21:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
     </row>
     <row r="34" spans="21:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8314,7 +8314,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -8329,7 +8329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J11">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -8344,7 +8344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8359,7 +8359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J13">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -8374,7 +8374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8389,7 +8389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8404,7 +8404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -8419,7 +8419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8434,7 +8434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8449,7 +8449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8464,7 +8464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8504,13 +8504,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8518,10 +8518,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8529,10 +8529,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8540,10 +8540,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8551,10 +8551,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8562,10 +8562,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8573,10 +8573,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Regular#[2011-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Estonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF5EFF-3A64-42AD-BCAF-2967D0C422CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A280E68-AE8D-4D97-BBA3-79494E2DE8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="23" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -986,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="66">
   <si>
     <t>-</t>
   </si>
@@ -998,12 +1008,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -1182,6 +1186,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1501,6 +1514,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,87 +2545,85 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="3.90625" style="3" customWidth="1"/>
-    <col min="11" max="14" width="3.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="3.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -2618,17 +2632,17 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2664,10 +2678,10 @@
         <v>2012</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="19" t="s">
@@ -2677,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -2806,10 +2820,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="19" t="s">
@@ -2822,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>0</v>
@@ -2852,17 +2866,17 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -2898,17 +2912,17 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -2944,10 +2958,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="19" t="s">
@@ -2960,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>0</v>
@@ -2990,10 +3004,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="19" t="s">
@@ -3009,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
@@ -3132,14 +3146,14 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -3222,11 +3236,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K11">
@@ -3399,79 +3413,77 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.90625" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.6328125" style="3" customWidth="1"/>
+    <col min="9" max="12" width="3.6328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -3480,17 +3492,17 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3520,10 +3532,10 @@
         <v>2012</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="19" t="s">
@@ -3533,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -3644,10 +3656,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19" t="s">
@@ -3660,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
@@ -3684,17 +3696,17 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -3724,17 +3736,17 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -3764,10 +3776,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -3780,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -3846,10 +3858,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -3862,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
@@ -3886,10 +3898,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -3902,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>0</v>
@@ -3926,14 +3938,14 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -4004,11 +4016,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J11">
@@ -4245,71 +4257,69 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="38"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="39"/>
       <c r="J1" s="26"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -4318,17 +4328,17 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4496,17 +4506,17 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -4530,17 +4540,17 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -4564,10 +4574,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -4577,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -4706,14 +4716,14 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -4740,14 +4750,14 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -4770,11 +4780,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11 I13 I15">
@@ -4807,7 +4817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14 I12">
+  <conditionalFormatting sqref="I12 I14">
     <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
@@ -4822,7 +4832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14 J12">
+  <conditionalFormatting sqref="J12 J14">
     <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
@@ -4911,71 +4921,69 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -4984,19 +4992,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5128,7 +5136,7 @@
         <v>2015</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>0</v>
@@ -5164,19 +5172,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -5200,13 +5208,13 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>0</v>
@@ -5236,13 +5244,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -5251,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -5380,16 +5388,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -5416,16 +5424,16 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -5448,10 +5456,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
@@ -5619,71 +5627,69 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -5692,19 +5698,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5872,19 +5878,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -5908,19 +5914,19 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -5944,13 +5950,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -5959,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -6016,22 +6022,22 @@
         <v>2020</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
@@ -6052,13 +6058,13 @@
         <v>2021</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>0</v>
@@ -6067,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
@@ -6088,16 +6094,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -6124,16 +6130,16 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -6156,11 +6162,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6194,7 +6200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14 I12">
+  <conditionalFormatting sqref="I12 I14">
     <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
@@ -6224,7 +6230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15 I13">
+  <conditionalFormatting sqref="I13 I15">
     <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
@@ -6358,71 +6364,69 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -6431,19 +6435,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6611,19 +6615,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -6683,13 +6687,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -6698,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -6827,16 +6831,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -6895,10 +6899,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
@@ -7007,7 +7011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15 I13">
+  <conditionalFormatting sqref="I13 I15">
     <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
@@ -7022,7 +7026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15 J13">
+  <conditionalFormatting sqref="J13 J15">
     <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
@@ -7096,71 +7100,69 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -7169,19 +7171,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -7349,19 +7351,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -7421,13 +7423,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -7436,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -7565,16 +7567,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -7633,10 +7635,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
@@ -7670,7 +7672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14 I12">
+  <conditionalFormatting sqref="I12 I14">
     <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
@@ -7685,7 +7687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14 J12">
+  <conditionalFormatting sqref="J12 J14">
     <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
@@ -7759,69 +7761,69 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="12.36328125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="3.90625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -7830,19 +7832,19 @@
         <v>2011</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -8010,19 +8012,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -8082,13 +8084,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>0</v>
@@ -8097,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
@@ -8226,16 +8228,16 @@
         <v>2022</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>0</v>
@@ -8262,16 +8264,16 @@
         <v>2023</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>0</v>
@@ -8306,11 +8308,11 @@
       <c r="V34" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I11">
@@ -8504,13 +8506,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8518,10 +8520,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8529,10 +8531,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8540,10 +8542,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8551,10 +8553,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8562,10 +8564,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8573,10 +8575,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
